--- a/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -641,6 +641,18 @@
   </si>
   <si>
     <t>Plano Geral do Projeto &gt; Seção 5 e Seção 9</t>
+  </si>
+  <si>
+    <t>Estabelecimento de Novo Projeto</t>
+  </si>
+  <si>
+    <t>Relatório de Conclusão do Projeto &gt; Seção 4</t>
+  </si>
+  <si>
+    <t>Estabelecimento do Cronograma e Plano de Projeto</t>
+  </si>
+  <si>
+    <t>Instância do Processo (Projeto)</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1031,6 +1043,39 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1041,7 +1086,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1219,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
@@ -1719,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2854,7 +2909,7 @@
       <c r="D131" s="23"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="46" t="s">
         <v>57</v>
       </c>
       <c r="B132" s="23"/>
@@ -2864,7 +2919,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B133" s="23"/>
@@ -2936,7 +2991,7 @@
       <c r="D140" s="23"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B141" s="23"/>
@@ -2946,7 +3001,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B142" s="23"/>
@@ -2956,7 +3011,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="22" t="s">
+      <c r="A143" s="46" t="s">
         <v>48</v>
       </c>
       <c r="B143" s="23"/>
@@ -2966,7 +3021,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="22" t="s">
+      <c r="A144" s="46" t="s">
         <v>57</v>
       </c>
       <c r="B144" s="23"/>
@@ -3012,66 +3067,90 @@
       <c r="D148" s="23"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="25"/>
+      <c r="A149" s="46" t="s">
+        <v>61</v>
+      </c>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
+      <c r="D149" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="25"/>
+      <c r="A150" s="46" t="s">
+        <v>31</v>
+      </c>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
+      <c r="D150" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="25"/>
+      <c r="A151" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
+      <c r="D151" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="25"/>
-      <c r="B152" s="27" t="s">
+      <c r="A152" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="25"/>
+      <c r="B153" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-    </row>
-    <row r="153" spans="1:4" ht="63.75" customHeight="1">
-      <c r="A153" s="38" t="s">
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="1:4" ht="63.75" customHeight="1">
+      <c r="A154" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B153" s="42"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="42"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="22" t="s">
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B154" s="23"/>
-      <c r="C154" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="23"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="22"/>
       <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
+      <c r="C155" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="D155" s="23"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="25"/>
+      <c r="A156" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="25"/>
+      <c r="A157" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
+      <c r="D157" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="25"/>
@@ -3079,99 +3158,119 @@
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1">
+    <row r="159" spans="1:4">
       <c r="A159" s="25"/>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A160" s="25"/>
+      <c r="B160" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-    </row>
-    <row r="160" spans="1:4" ht="69.75" customHeight="1">
-      <c r="A160" s="38" t="s">
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+    </row>
+    <row r="161" spans="1:4" ht="69.75" customHeight="1">
+      <c r="A161" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B160" s="42"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="42"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="22" t="s">
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="23"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="25"/>
       <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
+      <c r="C162" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="D162" s="23"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="25"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
+      <c r="A163" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="47"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="25"/>
+      <c r="A164" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
+      <c r="D164" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="25"/>
+      <c r="A165" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+      <c r="D165" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="25"/>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1">
+      <c r="A167" s="25"/>
+      <c r="B167" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-    </row>
-    <row r="167" spans="1:4" ht="57" customHeight="1">
-      <c r="A167" s="38" t="s">
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+    </row>
+    <row r="168" spans="1:4" ht="57" customHeight="1">
+      <c r="A168" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="22" t="s">
+      <c r="B168" s="42"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B168" s="23"/>
-      <c r="C168" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="23"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="25"/>
       <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
+      <c r="C169" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="D169" s="23"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="25"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
+      <c r="A170" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" s="47"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="25"/>
+      <c r="A171" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
+      <c r="D171" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="25"/>
@@ -3181,11 +3280,17 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="25"/>
-      <c r="B173" s="27" t="s">
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="25"/>
+      <c r="B174" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3220,9 +3325,9 @@
     <hyperlink ref="C140" r:id="rId28"/>
     <hyperlink ref="C147" r:id="rId29"/>
     <hyperlink ref="C148" r:id="rId30"/>
-    <hyperlink ref="C154" r:id="rId31"/>
-    <hyperlink ref="C161" r:id="rId32"/>
-    <hyperlink ref="C168" r:id="rId33"/>
+    <hyperlink ref="C155" r:id="rId31"/>
+    <hyperlink ref="C162" r:id="rId32"/>
+    <hyperlink ref="C169" r:id="rId33"/>
     <hyperlink ref="D7" r:id="rId34"/>
     <hyperlink ref="D14" r:id="rId35"/>
     <hyperlink ref="D23" r:id="rId36"/>
@@ -3263,9 +3368,18 @@
     <hyperlink ref="D141" r:id="rId71"/>
     <hyperlink ref="D142" r:id="rId72"/>
     <hyperlink ref="D144" r:id="rId73"/>
+    <hyperlink ref="D149" r:id="rId74"/>
+    <hyperlink ref="D150" r:id="rId75"/>
+    <hyperlink ref="D151" r:id="rId76"/>
+    <hyperlink ref="D152" r:id="rId77"/>
+    <hyperlink ref="D156" r:id="rId78"/>
+    <hyperlink ref="D163" r:id="rId79"/>
+    <hyperlink ref="D164" r:id="rId80"/>
+    <hyperlink ref="D170" r:id="rId81"/>
+    <hyperlink ref="D171" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId74"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId83"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
@@ -1774,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3216,61 +3216,61 @@
       </c>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
-      <c r="D165" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="D165" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="25"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
-      <c r="A167" s="25"/>
-      <c r="B167" s="27" t="s">
+      <c r="B166" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-    </row>
-    <row r="168" spans="1:4" ht="57" customHeight="1">
-      <c r="A168" s="38" t="s">
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+    </row>
+    <row r="167" spans="1:4" ht="57" customHeight="1">
+      <c r="A167" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="42"/>
-      <c r="C168" s="42"/>
-      <c r="D168" s="42"/>
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="23"/>
+      <c r="C168" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="23"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="22" t="s">
+      <c r="A169" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B169" s="23"/>
-      <c r="C169" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="23"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170" s="47"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="25" t="s">
-        <v>79</v>
-      </c>
+      <c r="A171" s="25"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
-      <c r="D171" s="43" t="s">
-        <v>20</v>
-      </c>
+      <c r="D171" s="23"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="25"/>
@@ -3280,17 +3280,11 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="25"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="25"/>
-      <c r="B174" s="27" t="s">
+      <c r="B173" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3327,7 +3321,7 @@
     <hyperlink ref="C148" r:id="rId30"/>
     <hyperlink ref="C155" r:id="rId31"/>
     <hyperlink ref="C162" r:id="rId32"/>
-    <hyperlink ref="C169" r:id="rId33"/>
+    <hyperlink ref="C168" r:id="rId33"/>
     <hyperlink ref="D7" r:id="rId34"/>
     <hyperlink ref="D14" r:id="rId35"/>
     <hyperlink ref="D23" r:id="rId36"/>
@@ -3375,11 +3369,12 @@
     <hyperlink ref="D156" r:id="rId78"/>
     <hyperlink ref="D163" r:id="rId79"/>
     <hyperlink ref="D164" r:id="rId80"/>
-    <hyperlink ref="D170" r:id="rId81"/>
-    <hyperlink ref="D171" r:id="rId82"/>
+    <hyperlink ref="D169" r:id="rId81"/>
+    <hyperlink ref="D170" r:id="rId82"/>
+    <hyperlink ref="D165" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId83"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Instância do Processo (Projeto)</t>
+  </si>
+  <si>
+    <t>Conclusão do Projeto</t>
   </si>
 </sst>
 </file>
@@ -1776,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3267,10 +3270,14 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="25"/>
+      <c r="A171" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
+      <c r="D171" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="25"/>
@@ -3372,9 +3379,10 @@
     <hyperlink ref="D169" r:id="rId81"/>
     <hyperlink ref="D170" r:id="rId82"/>
     <hyperlink ref="D165" r:id="rId83"/>
+    <hyperlink ref="D171" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId85"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GPR-Avaliação Projeto.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
     <sheet name="GPR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -656,6 +656,15 @@
   </si>
   <si>
     <t>Conclusão do Projeto</t>
+  </si>
+  <si>
+    <t>Aprovação do PGP pela equipe</t>
+  </si>
+  <si>
+    <t>Aprovação do PGP pelo patrocinador</t>
+  </si>
+  <si>
+    <t>Relatório de Conclusão do Projeto &gt; Seção 3</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2063,7 +2072,7 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2506,16 +2515,24 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="25"/>
+      <c r="A86" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="D86" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="25"/>
+      <c r="A87" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
+      <c r="D87" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="25"/>
@@ -2615,7 +2632,7 @@
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2711,7 +2728,7 @@
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2792,10 +2809,14 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="25"/>
+      <c r="A117" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="D117" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="26"/>
@@ -3019,7 +3040,7 @@
       </c>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
-      <c r="D143" s="23" t="s">
+      <c r="D143" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3151,7 +3172,7 @@
       </c>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3223,75 +3244,95 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
-      <c r="A166" s="25"/>
-      <c r="B166" s="27" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1">
+      <c r="A168" s="25"/>
+      <c r="B168" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-    </row>
-    <row r="167" spans="1:4" ht="57" customHeight="1">
-      <c r="A167" s="38" t="s">
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+    </row>
+    <row r="169" spans="1:4" ht="57" customHeight="1">
+      <c r="A169" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="22" t="s">
+      <c r="B169" s="42"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B168" s="23"/>
-      <c r="C168" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="23"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169" s="47"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="25" t="s">
-        <v>79</v>
-      </c>
       <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="43" t="s">
-        <v>20</v>
-      </c>
+      <c r="C170" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="23"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" s="47"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="25"/>
+      <c r="A172" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
+      <c r="D172" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="25"/>
-      <c r="B173" s="27" t="s">
+      <c r="A173" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="25"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="25"/>
+      <c r="B175" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3328,7 +3369,7 @@
     <hyperlink ref="C148" r:id="rId30"/>
     <hyperlink ref="C155" r:id="rId31"/>
     <hyperlink ref="C162" r:id="rId32"/>
-    <hyperlink ref="C168" r:id="rId33"/>
+    <hyperlink ref="C170" r:id="rId33"/>
     <hyperlink ref="D7" r:id="rId34"/>
     <hyperlink ref="D14" r:id="rId35"/>
     <hyperlink ref="D23" r:id="rId36"/>
@@ -3376,13 +3417,23 @@
     <hyperlink ref="D156" r:id="rId78"/>
     <hyperlink ref="D163" r:id="rId79"/>
     <hyperlink ref="D164" r:id="rId80"/>
-    <hyperlink ref="D169" r:id="rId81"/>
-    <hyperlink ref="D170" r:id="rId82"/>
+    <hyperlink ref="D171" r:id="rId81"/>
+    <hyperlink ref="D172" r:id="rId82"/>
     <hyperlink ref="D165" r:id="rId83"/>
-    <hyperlink ref="D171" r:id="rId84"/>
+    <hyperlink ref="D173" r:id="rId84"/>
+    <hyperlink ref="D32" r:id="rId85"/>
+    <hyperlink ref="D98" r:id="rId86"/>
+    <hyperlink ref="D108" r:id="rId87"/>
+    <hyperlink ref="D143" r:id="rId88"/>
+    <hyperlink ref="D157" r:id="rId89"/>
+    <hyperlink ref="D86" r:id="rId90"/>
+    <hyperlink ref="D87" r:id="rId91"/>
+    <hyperlink ref="D117" r:id="rId92"/>
+    <hyperlink ref="D166" r:id="rId93"/>
+    <hyperlink ref="D167" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId85"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId95"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>